--- a/Symal/32648/zres_siteapp_NEW.xlsx
+++ b/Symal/32648/zres_siteapp_NEW.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Symal\32648\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24EBECF-061C-448A-9D39-6863750D161B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9818A6E7-AF19-4004-BF7C-B03D6DDE398B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="600" windowWidth="28890" windowHeight="19710" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
+    <workbookView xWindow="9600" yWindow="1515" windowWidth="28890" windowHeight="19710" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
   </bookViews>
   <sheets>
     <sheet name="zres_siteapp_NEW" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zres_siteapp_NEW!$A$1:$G$40</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
   <si>
     <t>Id</t>
   </si>
@@ -139,18 +142,12 @@
     <t>• Has all of the above been completed correctly and to a high standard?</t>
   </si>
   <si>
-    <t>• Markers shall be placed in accordance with manufacturer’s specification. Wherever possible markers shall be placed clear of longitudinal or transverse joints and clear of surface removed and the surface is damaged. All pavement markings shall be within specified tolerances.</t>
-  </si>
-  <si>
     <t>f220d5e9-3dbe-556d-88ed-22c9349260b3</t>
   </si>
   <si>
     <t>Postfix</t>
   </si>
   <si>
-    <t>SYM-ITP-028 - Heritage Wall</t>
-  </si>
-  <si>
     <t>c1bf4c11-d547-40d4-af6f-4656464a1c47</t>
   </si>
   <si>
@@ -166,17 +163,95 @@
     <t>2.0 Painting</t>
   </si>
   <si>
-    <t>• Is the painting material approved for use</t>
-  </si>
-  <si>
     <t>• Attach Dulux QA</t>
+  </si>
+  <si>
+    <t>• Data sheet</t>
+  </si>
+  <si>
+    <t>• Certificate of paint conformity</t>
+  </si>
+  <si>
+    <t>• APAS certificate</t>
+  </si>
+  <si>
+    <t>• Glass bead data sheets</t>
+  </si>
+  <si>
+    <t>• Retroflectivity testing to meet the requirements of Table 721.A131.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Markers shall be placed in accordance with manufacturer’s specification and AS 1906. Wherever possible markers shall be placed clear of longitudinal or transverse joints and clear of surface removed and the surface is damaged. All pavement markings shall be within specified tolerances. RPM to be installed with hot melt adhesive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Work completed in according with IFC drawings and specifications </t>
+  </si>
+  <si>
+    <t>• Is the painting material approved for use?</t>
+  </si>
+  <si>
+    <t>3.0 Final Inspection</t>
+  </si>
+  <si>
+    <t>SYM-ITP-028 - Heritage Wall (Rev 1)</t>
+  </si>
+  <si>
+    <t>SYM-ITP-023 - Sign Installation (Rev 1)</t>
+  </si>
+  <si>
+    <t>• Are the drawings, complete &amp; current?</t>
+  </si>
+  <si>
+    <t>• Post details shall be as shown on the Sign and Post Schedule. Attach VicRoads certificate for poles. Attach road signage compliance confirmation.</t>
+  </si>
+  <si>
+    <t>• Vicroads certificate of type approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Road signage compliance confirmation </t>
+  </si>
+  <si>
+    <t>2.0 Foundation and Post Installation</t>
+  </si>
+  <si>
+    <t>• Review and confirm the required positions of all signs and posts.</t>
+  </si>
+  <si>
+    <t>HOLD POINT - Signature by Symal Infrastructure</t>
+  </si>
+  <si>
+    <t>HOLD POINT - Signature by Superintendent</t>
+  </si>
+  <si>
+    <t>• Concrete depth and dimensions to be as per IFC Drawing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0 Installation of Signs </t>
+  </si>
+  <si>
+    <t>• Fitting of signs to be as per table.</t>
+  </si>
+  <si>
+    <t>• Size of Sign: Signs up to 200 mm in depth | Number of Fittings per Pos: One</t>
+  </si>
+  <si>
+    <t>• Size of Sign: Signs 201 to 900 mm in depth | Number of Fittings per Pos: Two</t>
+  </si>
+  <si>
+    <t>• Size of Sign: Signs 901 to 1200 mm in depth | Number of Fittings per Pos: Three</t>
+  </si>
+  <si>
+    <t>• One extra fitting shall be provided per post for each 400 mm increment or part thereof above 1200 mm.</t>
+  </si>
+  <si>
+    <t>• Where signs are to be removed or relocated, as specified in the schedule, the Contractor shall dismantle and transport the signs, posts and fittings to the specified new location or as directed by the Superintendent.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,8 +390,14 @@
       <sz val="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,12 +579,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4CC82"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5D5E3"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -667,13 +768,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1049,17 +1156,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="159" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="202" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1081,60 +1188,60 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
@@ -1148,16 +1255,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
@@ -1171,226 +1278,505 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>31</v>
+      <c r="A15" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="2" t="s">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
+      <c r="E51" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
+      <c r="C52" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
+      <c r="C58" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G40" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>